--- a/spotfy_normalized.xlsx
+++ b/spotfy_normalized.xlsx
@@ -212,7 +212,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -242,12 +242,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="4">
@@ -324,7 +318,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="12">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -369,16 +363,8 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -478,8 +464,8 @@
   </sheetPr>
   <dimension ref="B3:J1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B22" colorId="64" zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B37" activeCellId="0" sqref="B37"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H11" activeCellId="0" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -651,7 +637,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="14.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C11" s="9" t="n">
         <v>1</v>
       </c>
@@ -664,7 +650,7 @@
       <c r="G11" s="9" t="n">
         <v>1</v>
       </c>
-      <c r="H11" s="11" t="s">
+      <c r="H11" s="10" t="s">
         <v>27</v>
       </c>
     </row>
@@ -681,7 +667,7 @@
       <c r="G12" s="9" t="n">
         <v>2</v>
       </c>
-      <c r="H12" s="11" t="s">
+      <c r="H12" s="10" t="s">
         <v>21</v>
       </c>
     </row>
@@ -698,7 +684,7 @@
       <c r="G13" s="9" t="n">
         <v>3</v>
       </c>
-      <c r="H13" s="11" t="s">
+      <c r="H13" s="10" t="s">
         <v>30</v>
       </c>
     </row>
@@ -706,7 +692,7 @@
       <c r="G14" s="9" t="n">
         <v>4</v>
       </c>
-      <c r="H14" s="11" t="s">
+      <c r="H14" s="10" t="s">
         <v>31</v>
       </c>
     </row>
@@ -719,7 +705,7 @@
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C16" s="12" t="n">
+      <c r="C16" s="11" t="n">
         <v>15</v>
       </c>
       <c r="D16" s="9" t="n">
@@ -727,7 +713,7 @@
       </c>
     </row>
     <row r="17" customFormat="false" ht="14.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C17" s="12" t="n">
+      <c r="C17" s="11" t="n">
         <v>16</v>
       </c>
       <c r="D17" s="9" t="n">
@@ -744,7 +730,7 @@
       </c>
     </row>
     <row r="18" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C18" s="12" t="n">
+      <c r="C18" s="11" t="n">
         <v>17</v>
       </c>
       <c r="D18" s="9" t="n">
@@ -753,7 +739,7 @@
       <c r="G18" s="10" t="n">
         <v>12</v>
       </c>
-      <c r="H18" s="13" t="s">
+      <c r="H18" s="9" t="s">
         <v>35</v>
       </c>
       <c r="I18" s="9" t="n">
@@ -761,7 +747,7 @@
       </c>
     </row>
     <row r="19" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C19" s="12" t="n">
+      <c r="C19" s="11" t="n">
         <v>18</v>
       </c>
       <c r="D19" s="9" t="n">
@@ -770,7 +756,7 @@
       <c r="G19" s="10" t="n">
         <v>10</v>
       </c>
-      <c r="H19" s="13" t="s">
+      <c r="H19" s="9" t="s">
         <v>36</v>
       </c>
       <c r="I19" s="9" t="n">
@@ -781,7 +767,7 @@
       <c r="G20" s="10" t="n">
         <v>3</v>
       </c>
-      <c r="H20" s="13" t="s">
+      <c r="H20" s="9" t="s">
         <v>37</v>
       </c>
       <c r="I20" s="9" t="n">
@@ -801,7 +787,7 @@
       <c r="G21" s="10" t="n">
         <v>5</v>
       </c>
-      <c r="H21" s="13" t="s">
+      <c r="H21" s="9" t="s">
         <v>38</v>
       </c>
       <c r="I21" s="9" t="n">
@@ -809,13 +795,13 @@
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C22" s="12" t="n">
+      <c r="C22" s="11" t="n">
         <v>15</v>
       </c>
-      <c r="D22" s="12" t="s">
+      <c r="D22" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="E22" s="12" t="n">
+      <c r="E22" s="11" t="n">
         <v>23</v>
       </c>
       <c r="G22" s="9" t="n">
@@ -829,19 +815,19 @@
       </c>
     </row>
     <row r="23" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C23" s="12" t="n">
+      <c r="C23" s="11" t="n">
         <v>16</v>
       </c>
-      <c r="D23" s="12" t="s">
+      <c r="D23" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="E23" s="12" t="n">
+      <c r="E23" s="11" t="n">
         <v>35</v>
       </c>
       <c r="G23" s="10" t="n">
         <v>8</v>
       </c>
-      <c r="H23" s="13" t="s">
+      <c r="H23" s="9" t="s">
         <v>40</v>
       </c>
       <c r="I23" s="9" t="n">
@@ -849,19 +835,19 @@
       </c>
     </row>
     <row r="24" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C24" s="12" t="n">
+      <c r="C24" s="11" t="n">
         <v>17</v>
       </c>
-      <c r="D24" s="12" t="s">
+      <c r="D24" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="E24" s="12" t="n">
+      <c r="E24" s="11" t="n">
         <v>20</v>
       </c>
       <c r="G24" s="10" t="n">
         <v>2</v>
       </c>
-      <c r="H24" s="13" t="s">
+      <c r="H24" s="9" t="s">
         <v>41</v>
       </c>
       <c r="I24" s="9" t="n">
@@ -869,19 +855,19 @@
       </c>
     </row>
     <row r="25" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C25" s="12" t="n">
+      <c r="C25" s="11" t="n">
         <v>18</v>
       </c>
-      <c r="D25" s="12" t="s">
+      <c r="D25" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="E25" s="12" t="n">
+      <c r="E25" s="11" t="n">
         <v>45</v>
       </c>
       <c r="G25" s="10" t="n">
         <v>7</v>
       </c>
-      <c r="H25" s="13" t="s">
+      <c r="H25" s="9" t="s">
         <v>42</v>
       </c>
       <c r="I25" s="9" t="n">
@@ -903,7 +889,7 @@
       <c r="G27" s="10" t="n">
         <v>1</v>
       </c>
-      <c r="H27" s="13" t="s">
+      <c r="H27" s="9" t="s">
         <v>44</v>
       </c>
       <c r="I27" s="9" t="n">
@@ -925,7 +911,7 @@
       <c r="G29" s="10" t="n">
         <v>4</v>
       </c>
-      <c r="H29" s="13" t="s">
+      <c r="H29" s="9" t="s">
         <v>46</v>
       </c>
       <c r="I29" s="9" t="n">
@@ -947,7 +933,7 @@
       <c r="G31" s="10" t="n">
         <v>9</v>
       </c>
-      <c r="H31" s="13" t="s">
+      <c r="H31" s="9" t="s">
         <v>48</v>
       </c>
       <c r="I31" s="9" t="n">
@@ -958,7 +944,7 @@
       <c r="G32" s="10" t="n">
         <v>11</v>
       </c>
-      <c r="H32" s="13" t="s">
+      <c r="H32" s="9" t="s">
         <v>49</v>
       </c>
       <c r="I32" s="9" t="n">
@@ -969,7 +955,7 @@
       <c r="G33" s="10" t="n">
         <v>6</v>
       </c>
-      <c r="H33" s="13" t="s">
+      <c r="H33" s="9" t="s">
         <v>50</v>
       </c>
       <c r="I33" s="9" t="n">
